--- a/P0053/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0053/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0053\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0053/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD8B890-CB51-49B6-8996-9BF0C70B8A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{2DD8B890-CB51-49B6-8996-9BF0C70B8A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89E193CB-031D-491E-B4D4-921EA5D86EE0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="255" windowWidth="10050" windowHeight="7005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -95,6 +95,9 @@
     <t>P0053</t>
   </si>
   <si>
+    <t>PR0001</t>
+  </si>
+  <si>
     <t>INFORME_2.pdf</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
     <t xml:space="preserve">Fondo Adaptación </t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Informe técnico correspondiente al primer producto del proyecto. El informe tiene como objetivo princial proporcionar un marco detallado sobre la recopilación y gestión de datos hidrológicos, así como su aplicación en la toma de decisiones relacionadas con el manejo del agua en la zona de La Mojana. El documento se encuentra dividido en cuatro capítulos de la siguiente manera: Almacenamiento, accesibilidad y difusión de datos hidrológicos; Sistema de información del recurso hídrico (SIRH); Información recopilada; Bibliografía. </t>
   </si>
   <si>
@@ -119,15 +125,15 @@
     <t>No</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Si bien el documento es claro y se presenta una revisión exhaustiva de los datos hidrológicos, hay secciones que carecen de detalles específicos sobre la metodología utilizada. Se resalta que el informe destaca la importancia de los datos hidrológicos para la toma de decisiones en la gestión del agua. Sin embargo, sería útil incluir ejemplos concretos de cómo los datos recopilados han influido en decisiones pasadas o en la formulación de políticas en la región. Esto podría proporcionar un contexto más claro sobre la aplicabilidad de la información.</t>
   </si>
   <si>
     <t>Modelación hidrodinámica, SIRH, información hidrológica, gestión y almacenamiento de datos, metadatos.</t>
   </si>
   <si>
+    <t>PR0002</t>
+  </si>
+  <si>
     <t>20160131_INFORME DE CONSTRUCCIÓN DEL MODELO CONCEPTUAL.docx</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
     <t xml:space="preserve">Modelación hidrodinámica, modelo conceptual, inundaciones, escenarios de amenaza, calibración de modelos. </t>
   </si>
   <si>
+    <t>PR0003</t>
+  </si>
+  <si>
     <t>20160131_INFORME DE CALIBRACION DEL MODELO.docx</t>
   </si>
   <si>
@@ -167,6 +176,9 @@
     <t>Modelación, modelo, modelo conceptual, modelo computaciona, elementos expuestos, geomorfología, bloques, calibración, 1D, 2D, intervención.</t>
   </si>
   <si>
+    <t>PR0004</t>
+  </si>
+  <si>
     <t>20160131_INFORME DE LAS PROPUESTAS DE LA UNAL.docx</t>
   </si>
   <si>
@@ -182,25 +194,40 @@
     <t>Si</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0053/02_PRODUCTOS/Producto 6. Informe de los resultados de simulacion de los escenarios de intervencion propuestos por la UNAL/Anexo 1. Analisis estrategias intervención propuestas por la UNAL.pdf</t>
+  </si>
+  <si>
     <t>Se incluye la siguiente anotación: El Modelo sirve para la validación de la alternativa de manejo y algunas otras alternativas desde el punto de vista hidrológico e hidráulico. Sin embargo, en la fase en la que se encuentra no permite construir un mapa de riesgos asociado a la frecuencia de ocurrencia de eventos. En particular, no permite definir que zonas se inundaran ni con que frecuencia, en ese sentido solo está diseñado para validar la alternativa propuesta pero no permite evaluar el efecto de otras alternativas en el territorio. Además, como se mencionó anteriormente, los escenarios de intervención sólamente contemplan alternativas de obras de ingeniería convencionales.</t>
   </si>
   <si>
     <t>Modelo computacional, mancha de inundación, intervención, diques, hidráulico, hidrológico, validación de alternativas propuestas</t>
   </si>
   <si>
-    <t>PR0001</t>
-  </si>
-  <si>
-    <t>PR0002</t>
-  </si>
-  <si>
-    <t>PR0003</t>
-  </si>
-  <si>
-    <t>PR0004</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0053/02_PRODUCTOS/Producto 6. Informe de los resultados de simulacion de los escenarios de intervencion propuestos por la UNAL/Anexo 1. Analisis estrategias intervención propuestas por la UNAL.pdf</t>
+    <t>PR0005</t>
+  </si>
+  <si>
+    <t>Anexo 1. Analisis estrategias intervención propuestas por la UNAL</t>
+  </si>
+  <si>
+    <t>Didrik Meijer</t>
+  </si>
+  <si>
+    <t>Deltares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El principal objetivo del documento es analizar diferentes estrategias para reducir los riesgos de inundación en la región de La Mojana. Se busca proporcionar una base para el diseño de un conjunto integral de medidas que puedan ser implementadas para mejorar la seguridad hídrica y mitigar el impacto de futuras inundaciones.  También presenta un análisis detallado de tres estrategias principales para mitigar los riesgos de inundación en la región de La Mojana, Colombia, tras las devastadoras inundaciones de 2010. A través de un enfoque técnico y metodológico, se busca proporcionar soluciones efectivas que mejoren la seguridad hídrica y la resiliencia de la comunidad. </t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>El principal objetivo del documento es analizar diferentes estrategias para reducir los riesgos de inundación en la región de La Mojana. Se busca proporcionar una base para el diseño de un conjunto integral de medidas que puedan ser implementadas para mejorar la seguridad hídrica y mitigar el impacto de futuras inundaciones. Se presentan tres alternativas para afrontar la inundación: 1. Estrategia de Aumento de la Altura de los Diques: Se concluye que elevar los diques existentes puede ser efectivo en áreas específicas, pero su impacto es limitado a las proximidades de las estructuras. Esta estrategia por sí sola no es suficiente para abordar el problema de inundaciones en toda la región. 2. Diques con Estructuras de Desbordamiento y Ampliación de Caños: Esta estrategia se identifica como una solución viable, especialmente en el sur de La Mojana. La combinación de diques elevados con estructuras de desbordamiento y la mejora de la capacidad de los caños puede reducir significativamente el riesgo de inundación. Se recomienda realizar un análisis de optimización para determinar las ubicaciones más efectivas para las estructuras de desbordamiento y la ampliación de los caños. 3. Áreas de Inundación Controlada: La implementación de áreas designadas para inundaciones puede ser una medida efectiva para aliviar la presión sobre los diques y los sistemas de drenaje. Esta estrategia es particularmente relevante para la parte norte de La Mojana, donde se puede reducir el área inundada.</t>
+  </si>
+  <si>
+    <t>Este producto está repetido el el P0023 PR0007</t>
+  </si>
+  <si>
+    <t>La Mojana, inundaciones, modelado hidrodinámico, calibración de modelos, Río Cauca, Río San Jorge, prevención de inundaciones, infraestructura hidráulica, capacitación técnica, Gestión de Recursos Hídricos</t>
   </si>
 </sst>
 </file>
@@ -230,15 +257,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -311,12 +350,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -329,6 +379,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -699,7 +754,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R5" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R6" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -715,9 +770,9 @@
     <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
     <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
     <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
     <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -987,18 +1042,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -1071,55 +1126,55 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1">
         <v>2014</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="O2" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1127,55 +1182,55 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1">
         <v>2014</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1183,55 +1238,55 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1">
         <v>2014</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1239,55 +1294,111 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1">
         <v>2015</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>49</v>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2015</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/P0053/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0053/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0053/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{2DD8B890-CB51-49B6-8996-9BF0C70B8A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89E193CB-031D-491E-B4D4-921EA5D86EE0}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{2DD8B890-CB51-49B6-8996-9BF0C70B8A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5A0B132-13FF-41FF-AE00-243E14E3869A}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="255" windowWidth="10050" windowHeight="7005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -116,7 +116,7 @@
     <t>Informe</t>
   </si>
   <si>
-    <t>PDF</t>
+    <t>pdf</t>
   </si>
   <si>
     <t>El informe sobre la modelación hidrodinámica de La Mojana presenta un análisis exhaustivo de la base de datos de información hidrológica, que incluye datos capturados, recopilados, procesados y analizados de manera compatible con el Sistema de Información de Recursos Hídricos (SIRH). El informe tiene entre sus resultados principales la implementación de una estructura secuencial para la organización de datos y archivos, enfatizando en la importancia de conservar los datos en bruto y documentar detalladamente los cambios realizados. El documento también resalta la importanica de proteger la información  de forma correcta e identificar herramientas de análisis de datos que permitan la recuperación de información en caso de pérdida. El informe concluye que la gestión adecuada de los datos hidrológicos es fundamental para la toma de decisiones informadas en proyectos relacionados con recursos hídricos, un archivo bien gestionado puede servir como una fuente confiable de datos durante décadas. Por último se resalta que la implementación de un sistema de metadatos es crucial para proporcionar información contextual sobre los datos, mejorando la accesibilidad y la comprensión de la información almacenada.</t>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t xml:space="preserve">El principal objetivo del documento es analizar diferentes estrategias para reducir los riesgos de inundación en la región de La Mojana. Se busca proporcionar una base para el diseño de un conjunto integral de medidas que puedan ser implementadas para mejorar la seguridad hídrica y mitigar el impacto de futuras inundaciones.  También presenta un análisis detallado de tres estrategias principales para mitigar los riesgos de inundación en la región de La Mojana, Colombia, tras las devastadoras inundaciones de 2010. A través de un enfoque técnico y metodológico, se busca proporcionar soluciones efectivas que mejoren la seguridad hídrica y la resiliencia de la comunidad. </t>
-  </si>
-  <si>
-    <t>pdf</t>
   </si>
   <si>
     <t>El principal objetivo del documento es analizar diferentes estrategias para reducir los riesgos de inundación en la región de La Mojana. Se busca proporcionar una base para el diseño de un conjunto integral de medidas que puedan ser implementadas para mejorar la seguridad hídrica y mitigar el impacto de futuras inundaciones. Se presentan tres alternativas para afrontar la inundación: 1. Estrategia de Aumento de la Altura de los Diques: Se concluye que elevar los diques existentes puede ser efectivo en áreas específicas, pero su impacto es limitado a las proximidades de las estructuras. Esta estrategia por sí sola no es suficiente para abordar el problema de inundaciones en toda la región. 2. Diques con Estructuras de Desbordamiento y Ampliación de Caños: Esta estrategia se identifica como una solución viable, especialmente en el sur de La Mojana. La combinación de diques elevados con estructuras de desbordamiento y la mejora de la capacidad de los caños puede reducir significativamente el riesgo de inundación. Se recomienda realizar un análisis de optimización para determinar las ubicaciones más efectivas para las estructuras de desbordamiento y la ampliación de los caños. 3. Áreas de Inundación Controlada: La implementación de áreas designadas para inundaciones puede ser una medida efectiva para aliviar la presión sobre los diques y los sistemas de drenaje. Esta estrategia es particularmente relevante para la parte norte de La Mojana, donde se puede reducir el área inundada.</t>
@@ -234,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,15 +716,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -735,6 +723,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -754,7 +751,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R6" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R6" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -1045,14 +1042,14 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
@@ -1065,7 +1062,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1118,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1177,7 +1174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1230,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1289,7 +1286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +1342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
@@ -1383,10 +1380,10 @@
         <v>25</v>
       </c>
       <c r="M6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="O6" s="13" t="s">
         <v>28</v>
@@ -1395,10 +1392,10 @@
         <v>23</v>
       </c>
       <c r="Q6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1564,27 +1561,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>